--- a/setup/undermerch-template.xlsx
+++ b/setup/undermerch-template.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Usuarios" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Produtos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Movimentacoes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vendas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Users" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Products" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Movements" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sales" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,26 +28,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E8EAF6"/>
-        <bgColor rgb="00E8EAF6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -55,20 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="009E9E9E"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,29 +419,23 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>createdAt</t>
         </is>
@@ -479,65 +455,53 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>nome</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>descricao</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>preco</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>estoque</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>imagemId</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ativo</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>imageId</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
         <is>
           <t>createdAt</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>updatedAt</t>
         </is>
@@ -557,53 +521,43 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>produtoId</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>tipo</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>quantidade</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>motivo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>usuarioEmail</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>productId</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>userEmail</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>createdAt</t>
         </is>
@@ -623,59 +577,48 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>produtoId</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>quantidade</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>precoUnitario</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>productId</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>unitPrice</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>metodoPagamento</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>usuarioEmail</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>paymentMethod</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>userEmail</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
         <is>
           <t>createdAt</t>
         </is>

--- a/setup/undermerch-template.xlsx
+++ b/setup/undermerch-template.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Users" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Products" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Movements" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sales" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SKUs" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Movements" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sales" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,25 +484,20 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>imageId</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>imageId</t>
+          <t>active</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>createdAt</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>createdAt</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>updatedAt</t>
         </is>
@@ -518,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,27 +535,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>quantity</t>
+          <t>value</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>reason</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>userEmail</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>createdAt</t>
+          <t>stock</t>
         </is>
       </c>
     </row>
@@ -595,30 +581,96 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>skuId</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>quantity</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>userEmail</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>createdAt</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>productId</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>skuId</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>unitPrice</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>paymentMethod</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>userEmail</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>createdAt</t>
         </is>

--- a/setup/undermerch-template.xlsx
+++ b/setup/undermerch-template.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,11 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>stock</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>imageId</t>
         </is>
       </c>
     </row>

--- a/setup/undermerch-template.xlsx
+++ b/setup/undermerch-template.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,11 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>createdAt</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>lastAccess</t>
         </is>
       </c>
     </row>
@@ -514,7 +519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
